--- a/Diagrama de Gantt.xlsx
+++ b/Diagrama de Gantt.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{497C06C9-43C3-AD49-BC89-CA446C16FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Gantt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>PLANTILLA DE DIAGRAMA DE GANTT</t>
   </si>
@@ -169,9 +183,6 @@
     <t>Crear base de datos</t>
   </si>
   <si>
-    <t>Und</t>
-  </si>
-  <si>
     <t>Mantenedores</t>
   </si>
   <si>
@@ -182,20 +193,25 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Ocampo y Rodrigo Sanchez </t>
+  </si>
+  <si>
+    <t>Matias Gonzales, Dan Ocampo, Juliano Muñoz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="d\.m"/>
-    <numFmt numFmtId="167" formatCode="d\-mmm"/>
-    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="167" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,7 +376,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +465,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -633,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -782,7 +804,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +813,7 @@
     <xf numFmtId="165" fontId="28" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -815,7 +837,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="27" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,53 +852,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,7 +875,50 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,30 +1200,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:CK41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AB2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="9" max="88" width="3" customWidth="1"/>
-    <col min="89" max="89" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.0546875" customWidth="1"/>
+    <col min="3" max="3" width="33.171875" customWidth="1"/>
+    <col min="4" max="4" width="19.01171875" customWidth="1"/>
+    <col min="5" max="6" width="10.3828125" customWidth="1"/>
+    <col min="7" max="7" width="9.70703125" customWidth="1"/>
+    <col min="9" max="88" width="2.96484375" customWidth="1"/>
+    <col min="89" max="89" width="3.37109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="21" customHeight="1">
+    <row r="1" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1289,55 +1314,55 @@
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
     </row>
-    <row r="2" spans="1:89" ht="21" customHeight="1">
+    <row r="2" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
       <c r="AU2" s="11"/>
       <c r="AV2" s="11"/>
       <c r="AW2" s="1"/>
@@ -1382,7 +1407,7 @@
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
     </row>
-    <row r="3" spans="1:89" ht="21" customHeight="1">
+    <row r="3" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1473,48 +1498,48 @@
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
     </row>
-    <row r="4" spans="1:89" ht="21" customHeight="1">
+    <row r="4" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="82" t="s">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
       <c r="AH4" s="17"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
@@ -1572,47 +1597,47 @@
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1"/>
     </row>
-    <row r="5" spans="1:89" ht="21" customHeight="1">
+    <row r="5" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="86" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="87">
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="86">
         <v>45549</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
       <c r="AG5" s="19"/>
       <c r="AH5" s="17"/>
       <c r="AI5" s="1"/>
@@ -1671,7 +1696,7 @@
       <c r="CJ5" s="1"/>
       <c r="CK5" s="1"/>
     </row>
-    <row r="6" spans="1:89" ht="21" customHeight="1">
+    <row r="6" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1762,7 +1787,7 @@
       <c r="CJ6" s="21"/>
       <c r="CK6" s="21"/>
     </row>
-    <row r="7" spans="1:89" ht="21" customHeight="1">
+    <row r="7" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1853,195 +1878,195 @@
       <c r="CJ7" s="21"/>
       <c r="CK7" s="21"/>
     </row>
-    <row r="8" spans="1:89" ht="17.25" customHeight="1">
+    <row r="8" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="85" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="71"/>
-      <c r="AY8" s="71"/>
-      <c r="AZ8" s="71"/>
-      <c r="BA8" s="71"/>
-      <c r="BB8" s="71"/>
-      <c r="BC8" s="71"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="71"/>
-      <c r="BG8" s="71"/>
-      <c r="BH8" s="71"/>
-      <c r="BI8" s="71"/>
-      <c r="BJ8" s="71"/>
-      <c r="BK8" s="71"/>
-      <c r="BL8" s="71"/>
-      <c r="BM8" s="71"/>
-      <c r="BN8" s="71"/>
-      <c r="BO8" s="71"/>
-      <c r="BP8" s="71"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="72"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
       <c r="BQ8" s="21"/>
     </row>
-    <row r="9" spans="1:89" ht="17.25" customHeight="1">
+    <row r="9" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="72" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="72" t="s">
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="72" t="s">
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="85" t="s">
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="85" t="s">
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="85" t="s">
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="85" t="s">
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="71"/>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="71"/>
-      <c r="BA9" s="71"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="81"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
       <c r="BB9" s="25"/>
       <c r="BC9" s="25"/>
       <c r="BD9" s="25"/>
       <c r="BE9" s="25"/>
       <c r="BF9" s="25"/>
-      <c r="BG9" s="85" t="s">
+      <c r="BG9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="BH9" s="71"/>
-      <c r="BI9" s="71"/>
-      <c r="BJ9" s="71"/>
-      <c r="BK9" s="71"/>
-      <c r="BL9" s="85" t="s">
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="71"/>
-      <c r="BN9" s="71"/>
-      <c r="BO9" s="71"/>
-      <c r="BP9" s="71"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
       <c r="BQ9" s="26"/>
     </row>
-    <row r="10" spans="1:89" ht="17.25" customHeight="1">
+    <row r="10" spans="1:89" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="28" t="s">
         <v>27</v>
       </c>
@@ -2144,7 +2169,7 @@
       <c r="BP10" s="29"/>
       <c r="BQ10" s="27"/>
     </row>
-    <row r="11" spans="1:89" ht="21" customHeight="1">
+    <row r="11" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -2215,7 +2240,7 @@
       <c r="BP11" s="38"/>
       <c r="BQ11" s="21"/>
     </row>
-    <row r="12" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
@@ -2240,8 +2265,8 @@
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
       <c r="L12" s="47"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="48"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
@@ -2298,14 +2323,14 @@
       <c r="BP12" s="50"/>
       <c r="BQ12" s="51"/>
     </row>
-    <row r="13" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E13" s="42">
         <v>45545</v>
@@ -2381,7 +2406,7 @@
       <c r="BP13" s="50"/>
       <c r="BQ13" s="51"/>
     </row>
-    <row r="14" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="53"/>
       <c r="C14" s="41" t="s">
@@ -2464,7 +2489,7 @@
       <c r="BP14" s="50"/>
       <c r="BQ14" s="51"/>
     </row>
-    <row r="15" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
       <c r="C15" s="41" t="s">
@@ -2473,13 +2498,19 @@
       <c r="D15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="42">
+        <v>45550</v>
+      </c>
+      <c r="F15" s="42">
+        <v>45567</v>
+      </c>
       <c r="G15" s="43">
         <f t="shared" ref="G15:G17" si="0">DAYS360(E15,F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="H15" s="55">
+        <v>1</v>
+      </c>
       <c r="I15" s="45"/>
       <c r="J15" s="54"/>
       <c r="K15" s="49"/>
@@ -2494,11 +2525,11 @@
       <c r="T15" s="57"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
       <c r="AB15" s="48"/>
       <c r="AC15" s="50"/>
       <c r="AD15" s="50"/>
@@ -2542,7 +2573,7 @@
       <c r="BP15" s="50"/>
       <c r="BQ15" s="51"/>
     </row>
-    <row r="16" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41" t="s">
@@ -2551,13 +2582,19 @@
       <c r="D16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="42">
+        <v>45555</v>
+      </c>
+      <c r="F16" s="42">
+        <v>45566</v>
+      </c>
       <c r="G16" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="55"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="55">
+        <v>1</v>
+      </c>
       <c r="I16" s="45"/>
       <c r="J16" s="54"/>
       <c r="K16" s="48"/>
@@ -2572,7 +2609,7 @@
       <c r="T16" s="57"/>
       <c r="U16" s="57"/>
       <c r="V16" s="57"/>
-      <c r="W16" s="48"/>
+      <c r="W16" s="98"/>
       <c r="X16" s="48"/>
       <c r="Y16" s="48"/>
       <c r="Z16" s="48"/>
@@ -2620,7 +2657,7 @@
       <c r="BP16" s="50"/>
       <c r="BQ16" s="51"/>
     </row>
-    <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41" t="s">
@@ -2629,13 +2666,19 @@
       <c r="D17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="42">
+        <v>45550</v>
+      </c>
+      <c r="F17" s="42">
+        <v>45556</v>
+      </c>
       <c r="G17" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="55"/>
+        <v>6</v>
+      </c>
+      <c r="H17" s="55">
+        <v>1</v>
+      </c>
       <c r="I17" s="45"/>
       <c r="J17" s="54"/>
       <c r="K17" s="49"/>
@@ -2650,8 +2693,8 @@
       <c r="T17" s="57"/>
       <c r="U17" s="57"/>
       <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
       <c r="AA17" s="48"/>
@@ -2698,7 +2741,7 @@
       <c r="BP17" s="50"/>
       <c r="BQ17" s="51"/>
     </row>
-    <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="58" t="s">
@@ -2707,10 +2750,18 @@
       <c r="D18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="55"/>
+      <c r="E18" s="42">
+        <v>45555</v>
+      </c>
+      <c r="F18" s="42">
+        <v>45558</v>
+      </c>
+      <c r="G18" s="43">
+        <v>3</v>
+      </c>
+      <c r="H18" s="55">
+        <v>1</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="54"/>
       <c r="K18" s="48"/>
@@ -2731,28 +2782,28 @@
       <c r="Z18" s="48"/>
       <c r="AA18" s="48"/>
       <c r="AB18" s="48"/>
-      <c r="AC18" s="75" t="s">
+      <c r="AC18" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
       <c r="AW18" s="50"/>
       <c r="AX18" s="50"/>
       <c r="AY18" s="50"/>
@@ -2775,7 +2826,7 @@
       <c r="BP18" s="50"/>
       <c r="BQ18" s="51"/>
     </row>
-    <row r="19" spans="1:69" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:69" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="40"/>
       <c r="C19" s="59" t="s">
@@ -2784,12 +2835,18 @@
       <c r="D19" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="E19" s="42">
+        <v>45560</v>
+      </c>
+      <c r="F19" s="42">
+        <v>45567</v>
+      </c>
       <c r="G19" s="43">
-        <v>0</v>
-      </c>
-      <c r="H19" s="55"/>
+        <v>8</v>
+      </c>
+      <c r="H19" s="55">
+        <v>1</v>
+      </c>
       <c r="I19" s="45"/>
       <c r="J19" s="54"/>
       <c r="K19" s="48"/>
@@ -2810,34 +2867,34 @@
       <c r="Z19" s="57"/>
       <c r="AA19" s="48"/>
       <c r="AB19" s="48"/>
-      <c r="AC19" s="93" t="s">
+      <c r="AC19" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="96" t="s">
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="96" t="s">
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AN19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="96" t="s">
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="94"/>
-      <c r="AV19" s="95"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="79"/>
       <c r="AW19" s="50"/>
       <c r="AX19" s="50"/>
       <c r="AY19" s="50"/>
@@ -2860,22 +2917,28 @@
       <c r="BP19" s="50"/>
       <c r="BQ19" s="51"/>
     </row>
-    <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="42">
+        <v>45562</v>
+      </c>
+      <c r="F20" s="42">
+        <v>45569</v>
+      </c>
       <c r="G20" s="43">
         <f t="shared" ref="G20:G21" si="1">DAYS360(E20,F20)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="55"/>
+        <v>7</v>
+      </c>
+      <c r="H20" s="55">
+        <v>1</v>
+      </c>
       <c r="I20" s="45"/>
       <c r="J20" s="54"/>
       <c r="K20" s="48"/>
@@ -2978,22 +3041,28 @@
       <c r="BP20" s="50"/>
       <c r="BQ20" s="51"/>
     </row>
-    <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="63"/>
       <c r="C21" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="E21" s="42">
+        <v>45565</v>
+      </c>
+      <c r="F21" s="42">
+        <v>45571</v>
+      </c>
       <c r="G21" s="43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="55"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="55">
+        <v>1</v>
+      </c>
       <c r="I21" s="45"/>
       <c r="J21" s="54"/>
       <c r="K21" s="49"/>
@@ -3009,8 +3078,8 @@
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="57"/>
       <c r="AB21" s="57"/>
@@ -3056,7 +3125,7 @@
       <c r="BP21" s="50"/>
       <c r="BQ21" s="51"/>
     </row>
-    <row r="22" spans="1:69" ht="21" customHeight="1">
+    <row r="22" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -3127,7 +3196,7 @@
       <c r="BP22" s="38"/>
       <c r="BQ22" s="21"/>
     </row>
-    <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="39"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -3198,7 +3267,7 @@
       <c r="BP23" s="50"/>
       <c r="BQ23" s="51"/>
     </row>
-    <row r="24" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -3269,7 +3338,7 @@
       <c r="BP24" s="50"/>
       <c r="BQ24" s="51"/>
     </row>
-    <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
@@ -3344,7 +3413,7 @@
       <c r="BP25" s="50"/>
       <c r="BQ25" s="51"/>
     </row>
-    <row r="26" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
       <c r="C26" s="41"/>
@@ -3419,7 +3488,7 @@
       <c r="BP26" s="50"/>
       <c r="BQ26" s="51"/>
     </row>
-    <row r="27" spans="1:69" ht="21" customHeight="1">
+    <row r="27" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
@@ -3490,7 +3559,7 @@
       <c r="BP27" s="38"/>
       <c r="BQ27" s="21"/>
     </row>
-    <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="39"/>
       <c r="B28" s="40"/>
       <c r="C28" s="41"/>
@@ -3565,7 +3634,7 @@
       <c r="BP28" s="50"/>
       <c r="BQ28" s="51"/>
     </row>
-    <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="41"/>
@@ -3640,7 +3709,7 @@
       <c r="BP29" s="50"/>
       <c r="BQ29" s="51"/>
     </row>
-    <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="53"/>
       <c r="C30" s="41"/>
@@ -3715,7 +3784,7 @@
       <c r="BP30" s="50"/>
       <c r="BQ30" s="51"/>
     </row>
-    <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39"/>
       <c r="B31" s="53"/>
       <c r="C31" s="41"/>
@@ -3790,7 +3859,7 @@
       <c r="BP31" s="50"/>
       <c r="BQ31" s="51"/>
     </row>
-    <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="41"/>
@@ -3865,7 +3934,7 @@
       <c r="BP32" s="50"/>
       <c r="BQ32" s="51"/>
     </row>
-    <row r="33" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="53"/>
       <c r="C33" s="41"/>
@@ -3940,7 +4009,7 @@
       <c r="BP33" s="50"/>
       <c r="BQ33" s="51"/>
     </row>
-    <row r="34" spans="1:89" ht="21" customHeight="1">
+    <row r="34" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
@@ -3989,31 +4058,31 @@
       <c r="AT34" s="37"/>
       <c r="AU34" s="37"/>
       <c r="AV34" s="37"/>
-      <c r="AW34" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="71"/>
-      <c r="BA34" s="71"/>
-      <c r="BB34" s="71"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="71"/>
-      <c r="BE34" s="71"/>
-      <c r="BF34" s="71"/>
-      <c r="BG34" s="71"/>
-      <c r="BH34" s="71"/>
-      <c r="BI34" s="71"/>
-      <c r="BJ34" s="71"/>
-      <c r="BK34" s="71"/>
-      <c r="BL34" s="71"/>
-      <c r="BM34" s="71"/>
-      <c r="BN34" s="71"/>
-      <c r="BO34" s="71"/>
-      <c r="BP34" s="71"/>
+      <c r="AW34" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="72"/>
+      <c r="BA34" s="72"/>
+      <c r="BB34" s="72"/>
+      <c r="BC34" s="72"/>
+      <c r="BD34" s="72"/>
+      <c r="BE34" s="72"/>
+      <c r="BF34" s="72"/>
+      <c r="BG34" s="72"/>
+      <c r="BH34" s="72"/>
+      <c r="BI34" s="72"/>
+      <c r="BJ34" s="72"/>
+      <c r="BK34" s="72"/>
+      <c r="BL34" s="72"/>
+      <c r="BM34" s="72"/>
+      <c r="BN34" s="72"/>
+      <c r="BO34" s="72"/>
+      <c r="BP34" s="72"/>
       <c r="BQ34" s="21"/>
     </row>
-    <row r="35" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="41"/>
@@ -4066,35 +4135,35 @@
       <c r="AT35" s="48"/>
       <c r="AU35" s="48"/>
       <c r="AV35" s="48"/>
-      <c r="AW35" s="89" t="s">
+      <c r="AW35" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="90"/>
-      <c r="AZ35" s="90"/>
-      <c r="BA35" s="91"/>
+      <c r="AX35" s="74"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="74"/>
+      <c r="BA35" s="75"/>
       <c r="BB35" s="66"/>
       <c r="BC35" s="66"/>
       <c r="BD35" s="66"/>
       <c r="BE35" s="66"/>
       <c r="BF35" s="66"/>
-      <c r="BG35" s="92" t="s">
+      <c r="BG35" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="BH35" s="90"/>
-      <c r="BI35" s="90"/>
-      <c r="BJ35" s="90"/>
-      <c r="BK35" s="91"/>
-      <c r="BL35" s="92" t="s">
+      <c r="BH35" s="74"/>
+      <c r="BI35" s="74"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="75"/>
+      <c r="BL35" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="BM35" s="90"/>
-      <c r="BN35" s="90"/>
-      <c r="BO35" s="90"/>
-      <c r="BP35" s="91"/>
+      <c r="BM35" s="74"/>
+      <c r="BN35" s="74"/>
+      <c r="BO35" s="74"/>
+      <c r="BP35" s="75"/>
       <c r="BQ35" s="51"/>
     </row>
-    <row r="36" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="41"/>
@@ -4203,7 +4272,7 @@
       </c>
       <c r="BQ36" s="51"/>
     </row>
-    <row r="37" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="41"/>
@@ -4278,7 +4347,7 @@
       <c r="BP37" s="48"/>
       <c r="BQ37" s="51"/>
     </row>
-    <row r="38" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:89" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="41"/>
@@ -4286,7 +4355,7 @@
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" s="65">
         <v>0</v>
@@ -4353,7 +4422,7 @@
       <c r="BP38" s="48"/>
       <c r="BQ38" s="51"/>
     </row>
-    <row r="39" spans="1:89" ht="21" customHeight="1">
+    <row r="39" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -4444,7 +4513,7 @@
       <c r="CJ39" s="21"/>
       <c r="CK39" s="21"/>
     </row>
-    <row r="40" spans="1:89" ht="21" customHeight="1">
+    <row r="40" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -4535,7 +4604,7 @@
       <c r="CJ40" s="21"/>
       <c r="CK40" s="21"/>
     </row>
-    <row r="41" spans="1:89" ht="21" customHeight="1">
+    <row r="41" spans="1:89" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -4628,14 +4697,23 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AW34:BP34"/>
-    <mergeCell ref="AW35:BA35"/>
-    <mergeCell ref="BG35:BK35"/>
-    <mergeCell ref="BL35:BP35"/>
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AH19:AL19"/>
-    <mergeCell ref="AR19:AV19"/>
-    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="AC18:AV18"/>
+    <mergeCell ref="P4:AG4"/>
+    <mergeCell ref="O2:AT2"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AV8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
     <mergeCell ref="AW8:BP8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
@@ -4652,23 +4730,14 @@
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="P4:AG4"/>
-    <mergeCell ref="O2:AT2"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AV8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="AC18:AV18"/>
+    <mergeCell ref="AW34:BP34"/>
+    <mergeCell ref="AW35:BA35"/>
+    <mergeCell ref="BG35:BK35"/>
+    <mergeCell ref="BL35:BP35"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AH19:AL19"/>
+    <mergeCell ref="AR19:AV19"/>
+    <mergeCell ref="AM19:AQ19"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H21 H23:H38">
     <cfRule type="colorScale" priority="1">
@@ -4679,8 +4748,6 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
